--- a/example_files/pt-br/xlsx/2_consolidacao_resultados/output/resultados_MQ.xlsx
+++ b/example_files/pt-br/xlsx/2_consolidacao_resultados/output/resultados_MQ.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detecções em P4</t>
+          <t>Detecções em P3</t>
         </is>
       </c>
     </row>
@@ -461,11 +461,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Columba livia</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2474</v>
+        <v>1013</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -477,11 +477,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Callicebus nigrifrons</t>
+          <t>Equus caballus</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1231</v>
+        <v>455</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -493,11 +493,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pitheciidae</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>718</v>
+        <v>277</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -509,11 +509,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>421</v>
+        <v>179</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -541,11 +541,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Canidae</t>
+          <t>Tamandua tetradactyla</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -557,11 +557,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bubulcus ibis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -573,189 +573,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>172</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Turdus rufiventris</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>141</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>135</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Didelphis sp.</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>119</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Columba livia</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>108</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Coendou insidiosus</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Coryphospingus cucullatus</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>49</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Procyon cancrivorus</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>48</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>24</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Trinomys sp.</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -765,6 +589,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detecções em P1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nycticorax nycticorax</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>233</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detecções em P7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>449</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>349</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sylvilagus brasiliensis</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>207</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amazilia sp.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>153</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -832,171 +872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detecções em P3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1013</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Equus caballus</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>455</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>277</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sus scrofa </t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>179</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lycalopex vettulus</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>171</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tamandua tetradactyla</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bubulcus ibis</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1256,13 +1132,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,7 +1159,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detecções em P7</t>
+          <t>Detecções em P4</t>
         </is>
       </c>
     </row>
@@ -1293,11 +1169,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t xml:space="preserve"> Columba livia</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>449</v>
+        <v>2474</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1309,11 +1185,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coendou insidiosus</t>
+          <t>Callicebus nigrifrons</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>349</v>
+        <v>1231</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1325,11 +1201,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sylvilagus brasiliensis</t>
+          <t>Pitheciidae</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207</v>
+        <v>718</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1341,11 +1217,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazilia sp.</t>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1357,113 +1233,237 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Lycalopex vettulus</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detecções em P1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canidae</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>334</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>315</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nycticorax nycticorax</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>233</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="C8" t="n">
+        <v>308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pecari tajacu</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>172</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Turdus rufiventris</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>141</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gallus gallus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Didelphis sp.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>119</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Columba livia</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>108</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Coendou insidiosus</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Coryphospingus cucullatus</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>49</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Procyon cancrivorus</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>48</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Puma concolor</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C18" t="n">
+        <v>24</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Trinomys sp.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/example_files/pt-br/xlsx/2_consolidacao_resultados/output/resultados_MQ.xlsx
+++ b/example_files/pt-br/xlsx/2_consolidacao_resultados/output/resultados_MQ.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="P4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="P7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="P6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="P1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="P3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="P5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detecções em P3</t>
+          <t>Detecções em P4</t>
         </is>
       </c>
     </row>
@@ -461,11 +461,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t xml:space="preserve"> Columba livia</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1013</v>
+        <v>2474</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -477,11 +477,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Equus caballus</t>
+          <t>Callicebus nigrifrons</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>455</v>
+        <v>1231</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -493,11 +493,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Pitheciidae</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>277</v>
+        <v>718</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -509,11 +509,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sus scrofa </t>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>179</v>
+        <v>421</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>171</v>
+        <v>393</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -541,11 +541,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tamandua tetradactyla</t>
+          <t>Canidae</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -557,11 +557,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bubulcus ibis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -573,13 +573,189 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Pecari tajacu</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>261</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>172</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Turdus rufiventris</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>141</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gallus gallus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Didelphis sp.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>119</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Columba livia</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>108</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Coryphospingus cucullatus</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>49</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Procyon cancrivorus</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>48</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>24</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Trinomys sp.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -589,6 +765,382 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detecções em P7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>449</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>349</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sylvilagus brasiliensis</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>207</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amazilia sp.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>153</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detecções em P6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hydrochoerus hydrochaeris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2268</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lycalopex vettulus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1270</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rattus norvegicus</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>466</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>229</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pitheciidae</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>226</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>162</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saguinus midas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>99</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nasua nasua</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gallus gallus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chiroptera</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Columba livia</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sus scrofa </t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -688,13 +1240,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +1267,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Detecções em P7</t>
+          <t>Detecções em P3</t>
         </is>
       </c>
     </row>
@@ -725,11 +1277,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>449</v>
+        <v>1013</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -741,11 +1293,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coendou insidiosus</t>
+          <t>Equus caballus</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -757,11 +1309,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sylvilagus brasiliensis</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -773,11 +1325,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazilia sp.</t>
+          <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -789,13 +1341,61 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Lycalopex vettulus</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tamandua tetradactyla</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bubulcus ibis</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -804,7 +1404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,604 +1470,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detecções em P6</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hydrochoerus hydrochaeris</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2268</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lycalopex vettulus</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1801</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1690</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1270</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rattus norvegicus</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>466</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>229</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pitheciidae</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>226</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>162</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Saguinus midas</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>99</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Nasua nasua</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>44</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>42</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Chiroptera</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Columba livia</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sus scrofa </t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detecções em P4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Columba livia</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2474</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Callicebus nigrifrons</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pitheciidae</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>718</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nycticorax nycticorax</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>421</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lycalopex vettulus</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>393</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Canidae</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>334</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>308</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pecari tajacu</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>261</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>172</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Turdus rufiventris</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>141</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>135</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Didelphis sp.</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>119</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Columba livia</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>108</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Coendou insidiosus</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Coryphospingus cucullatus</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>49</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Procyon cancrivorus</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>48</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>24</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Trinomys sp.</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>